--- a/Analysis/CasosUso-RequisitosV4.xlsx
+++ b/Analysis/CasosUso-RequisitosV4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SI-VDIPROFILES.ualg.pt\Utilizadores\deloitte03\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50CD6D0C-7CD4-490C-8C29-E742ADF53012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64F112A8-428B-4DF5-BD39-941C61AB2E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B113B668-A78B-4ECD-972E-AB438ABFB571}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{B113B668-A78B-4ECD-972E-AB438ABFB571}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de uso" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="254">
   <si>
     <t>Cenário de sucesso</t>
   </si>
@@ -172,16 +172,10 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>O sistema deve receber nº conta</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
     <t>O sistema deve solicitar IBAN para transferir o restante valor da conta</t>
-  </si>
-  <si>
-    <t>2.3</t>
   </si>
   <si>
     <t>O sistema deve eliminar conta</t>
@@ -728,9 +722,6 @@
     <t>[1.1 … 1.10], [14.2 … 14.11]</t>
   </si>
   <si>
-    <t>[2.1 … 2.3], [14.2 … 14.11]</t>
-  </si>
-  <si>
     <t>14.17</t>
   </si>
   <si>
@@ -798,13 +789,16 @@
   </si>
   <si>
     <t>Selecionou o agendamento desejado e apagou</t>
+  </si>
+  <si>
+    <t>[2.1; 2.2], [14.2 … 14.11]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,7 +893,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,6 +940,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1114,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1201,126 +1201,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1334,6 +1214,134 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1352,7 +1360,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1650,32 +1658,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970035EA-CC5D-4832-BDA5-71758468FB85}">
   <dimension ref="B1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B58" sqref="A58:XFD58"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="92.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="92.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="89" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.44140625" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="21.75" thickBot="1">
+      <c r="B1" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
+    </row>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1">
       <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1686,41 +1694,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="61" t="s">
+    <row r="4" spans="2:6">
+      <c r="B4" s="57" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="55"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="F5" s="55"/>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B6" s="56"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="F4" s="62" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="62"/>
-    </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="63"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="63"/>
-    </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="56"/>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1">
       <c r="D9" s="6" t="s">
         <v>0</v>
       </c>
@@ -1731,37 +1739,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="61" t="s">
+    <row r="10" spans="2:6" ht="14.45" customHeight="1">
+      <c r="B10" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="67" t="s">
-        <v>189</v>
+      <c r="D10" s="63" t="s">
+        <v>187</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="62" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
+      <c r="F10" s="55" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="55"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="68"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F11" s="62"/>
-    </row>
-    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="63"/>
+        <v>188</v>
+      </c>
+      <c r="F11" s="55"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B12" s="56"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="69"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="63"/>
-    </row>
-    <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="56"/>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="15" spans="2:6" ht="15.75" thickBot="1">
       <c r="C15" s="12" t="s">
         <v>2</v>
       </c>
@@ -1775,123 +1783,123 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="61" t="s">
+    <row r="16" spans="2:6">
+      <c r="B16" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="73" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="62"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="54"/>
+        <v>189</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B17" s="55"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17" s="62"/>
-    </row>
-    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="62"/>
+        <v>190</v>
+      </c>
+      <c r="F17" s="55"/>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B18" s="55"/>
       <c r="C18" s="9"/>
       <c r="D18" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="F18" s="62"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="62"/>
+        <v>192</v>
+      </c>
+      <c r="F18" s="55"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="55"/>
       <c r="C19" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="55"/>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B20" s="55"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="55"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="55"/>
+      <c r="C21" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="F19" s="62"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="62"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="62"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="62"/>
-      <c r="C21" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="51" t="s">
+      <c r="F21" s="55"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B22" s="55"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="55"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="55"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E23" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F21" s="62"/>
-    </row>
-    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="62"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="62"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="62"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="51" t="s">
+      <c r="F23" s="55"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B24" s="55"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="62"/>
-    </row>
-    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="62"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F24" s="62"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
-      <c r="C25" s="78" t="s">
+      <c r="F24" s="55"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="55"/>
+      <c r="C25" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="61" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="63"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="63"/>
-    </row>
-    <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="68"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="57" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B26" s="56"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="56"/>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="29" spans="2:6" ht="15.75" thickBot="1">
       <c r="D29" s="6" t="s">
         <v>0</v>
       </c>
@@ -1902,39 +1910,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="61" t="s">
+    <row r="30" spans="2:6" ht="14.45" customHeight="1">
+      <c r="B30" s="57" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="55"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F30" s="62" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="62"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" s="62"/>
-    </row>
-    <row r="32" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="63"/>
+      <c r="F31" s="55"/>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B32" s="56"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="69"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="63"/>
-    </row>
-    <row r="34" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="56"/>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="35" spans="2:6" ht="15.75" thickBot="1">
       <c r="D35" s="6" t="s">
         <v>0</v>
       </c>
@@ -1945,41 +1953,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="72" t="s">
+    <row r="36" spans="2:6">
+      <c r="B36" s="58" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="67" t="s">
-        <v>207</v>
+      <c r="D36" s="63" t="s">
+        <v>205</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F36" s="62" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="73"/>
+        <v>203</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="59"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="68"/>
+      <c r="D37" s="64"/>
       <c r="E37" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="55"/>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B38" s="60"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F37" s="62"/>
-    </row>
-    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="74"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="F38" s="63"/>
-    </row>
-    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="56"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="41" spans="2:6" ht="15.75" thickBot="1">
       <c r="D41" s="6" t="s">
         <v>0</v>
       </c>
@@ -1990,39 +1998,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="72" t="s">
+    <row r="42" spans="2:6">
+      <c r="B42" s="58" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="67" t="s">
-        <v>208</v>
+      <c r="D42" s="63" t="s">
+        <v>206</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F42" s="62" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="73"/>
+        <v>203</v>
+      </c>
+      <c r="F42" s="55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="59"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="68"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F43" s="62"/>
-    </row>
-    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="74"/>
+        <v>202</v>
+      </c>
+      <c r="F43" s="55"/>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B44" s="60"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="69"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="13"/>
-      <c r="F44" s="63"/>
-    </row>
-    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="56"/>
+    </row>
+    <row r="46" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="47" spans="2:6" ht="15.75" thickBot="1">
       <c r="D47" s="6" t="s">
         <v>0</v>
       </c>
@@ -2033,39 +2041,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="72" t="s">
+    <row r="48" spans="2:6">
+      <c r="B48" s="58" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="82" t="s">
-        <v>209</v>
+      <c r="D48" s="70" t="s">
+        <v>207</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F48" s="62" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="73"/>
+        <v>208</v>
+      </c>
+      <c r="F48" s="55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="59"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="83"/>
+      <c r="D49" s="71"/>
       <c r="E49" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F49" s="62"/>
-    </row>
-    <row r="50" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="74"/>
+        <v>202</v>
+      </c>
+      <c r="F49" s="55"/>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B50" s="60"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="84"/>
+      <c r="D50" s="72"/>
       <c r="E50" s="13"/>
-      <c r="F50" s="63"/>
-    </row>
-    <row r="52" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F50" s="56"/>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="53" spans="2:6" ht="15.75" thickBot="1">
       <c r="D53" s="6" t="s">
         <v>0</v>
       </c>
@@ -2076,53 +2084,53 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="72" t="s">
+    <row r="54" spans="2:6" ht="14.45" customHeight="1" thickBot="1">
+      <c r="B54" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="93" t="s">
+      <c r="C54" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="E54" s="95" t="s">
-        <v>182</v>
-      </c>
-      <c r="F54" s="62" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="73"/>
-      <c r="C55" s="93" t="s">
+      <c r="D54" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="F54" s="55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B55" s="59"/>
+      <c r="C55" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="E55" s="96" t="s">
-        <v>191</v>
-      </c>
-      <c r="F55" s="62"/>
-    </row>
-    <row r="56" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="74"/>
-      <c r="C56" s="91" t="s">
-        <v>253</v>
-      </c>
-      <c r="D56" s="92" t="s">
-        <v>255</v>
+      <c r="D55" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="E55" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" s="55"/>
+    </row>
+    <row r="56" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B56" s="60"/>
+      <c r="C56" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>252</v>
       </c>
       <c r="E56" s="47"/>
-      <c r="F56" s="63"/>
-    </row>
-    <row r="59" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F56" s="56"/>
+    </row>
+    <row r="59" spans="2:6" ht="15.75" thickBot="1">
       <c r="D59" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15.75" thickBot="1">
       <c r="C60" s="20"/>
       <c r="D60" s="6" t="s">
         <v>0</v>
@@ -2134,63 +2142,63 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="72" t="s">
+    <row r="61" spans="2:6" ht="15" customHeight="1">
+      <c r="B61" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="75" t="s">
+      <c r="C61" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="E61" s="51" t="s">
+      <c r="D61" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="E61" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="F61" s="55" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B62" s="59"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="56"/>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="59"/>
+      <c r="C63" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="F61" s="62" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="73"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="63"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="73"/>
-      <c r="C63" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="E63" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="F63" s="62" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="74"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="63"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E63" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="F63" s="55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B64" s="60"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="56"/>
+    </row>
+    <row r="65" spans="2:6">
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
       <c r="D65" s="19"/>
     </row>
-    <row r="66" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" ht="15.75" thickBot="1">
       <c r="B66" s="17"/>
       <c r="C66" s="18"/>
       <c r="D66" s="19"/>
     </row>
-    <row r="67" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" ht="15.75" thickBot="1">
       <c r="C67" s="20"/>
       <c r="D67" s="6" t="s">
         <v>0</v>
@@ -2202,58 +2210,58 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="72" t="s">
+    <row r="68" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B68" s="58" t="s">
         <v>20</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B69" s="59"/>
+      <c r="C69" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B70" s="59"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="E68" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="F68" s="24" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="73"/>
-      <c r="C69" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="21" t="s">
+      <c r="E70" s="11"/>
+      <c r="F70" s="55"/>
+    </row>
+    <row r="71" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B71" s="60"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="62" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="73"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="21" t="s">
+      <c r="E71" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="62"/>
-    </row>
-    <row r="71" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="74"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F71" s="63"/>
-    </row>
-    <row r="73" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F71" s="56"/>
+    </row>
+    <row r="73" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="74" spans="2:6" ht="15.75" thickBot="1">
       <c r="D74" s="6" t="s">
         <v>0</v>
       </c>
@@ -2264,39 +2272,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="72" t="s">
+    <row r="75" spans="2:6">
+      <c r="B75" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" s="53" t="s">
+      <c r="D75" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F75" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="59"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E75" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F75" s="62" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="73"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F76" s="62"/>
-    </row>
-    <row r="77" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="74"/>
+      <c r="F76" s="55"/>
+    </row>
+    <row r="77" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B77" s="60"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="55"/>
+      <c r="D77" s="75"/>
       <c r="E77" s="13"/>
-      <c r="F77" s="63"/>
-    </row>
-    <row r="79" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F77" s="56"/>
+    </row>
+    <row r="79" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="80" spans="2:6" ht="15.75" thickBot="1">
       <c r="D80" s="6" t="s">
         <v>0</v>
       </c>
@@ -2307,37 +2315,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="72" t="s">
+    <row r="81" spans="2:6">
+      <c r="B81" s="58" t="s">
         <v>22</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="D81" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="E81" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="F81" s="62" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="73"/>
+      <c r="D81" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="E81" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="F81" s="55" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="59"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="62"/>
-    </row>
-    <row r="83" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="55"/>
+    </row>
+    <row r="83" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B83" s="60"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="63"/>
-    </row>
-    <row r="85" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="86" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D83" s="75"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="56"/>
+    </row>
+    <row r="85" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="86" spans="2:6" ht="15.75" thickBot="1">
       <c r="D86" s="6" t="s">
         <v>0</v>
       </c>
@@ -2348,64 +2356,52 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="72" t="s">
+    <row r="87" spans="2:6" ht="14.25" customHeight="1">
+      <c r="B87" s="58" t="s">
         <v>23</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="E87" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="F87" s="62" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="73"/>
+      <c r="D87" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="E87" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="F87" s="55" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="59"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="62"/>
-    </row>
-    <row r="89" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="74"/>
+      <c r="D88" s="74"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="55"/>
+    </row>
+    <row r="89" spans="2:6" ht="15" customHeight="1" thickBot="1">
+      <c r="B89" s="60"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="63"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="75"/>
+      <c r="F89" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F16:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B16:B26"/>
     <mergeCell ref="E87:E89"/>
     <mergeCell ref="B75:B77"/>
     <mergeCell ref="D75:D77"/>
@@ -2422,21 +2418,33 @@
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="C69:C71"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F16:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="F87:F89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2445,28 +2453,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69645738-9476-4118-9E06-E04D0AA169EF}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="41"/>
-    <col min="2" max="2" width="90.5546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="41"/>
+    <col min="2" max="2" width="90.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -2476,7 +2484,7 @@
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>27</v>
       </c>
@@ -2486,7 +2494,7 @@
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>29</v>
       </c>
@@ -2496,7 +2504,7 @@
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>31</v>
       </c>
@@ -2506,7 +2514,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>33</v>
       </c>
@@ -2516,7 +2524,7 @@
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="33" t="s">
         <v>35</v>
       </c>
@@ -2526,7 +2534,7 @@
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>37</v>
       </c>
@@ -2536,7 +2544,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="33" t="s">
         <v>39</v>
       </c>
@@ -2546,7 +2554,7 @@
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="33" t="s">
         <v>41</v>
       </c>
@@ -2556,17 +2564,17 @@
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="38" t="s">
         <v>44</v>
       </c>
@@ -2576,7 +2584,7 @@
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="31">
         <v>2</v>
       </c>
@@ -2586,19 +2594,19 @@
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="90" t="s">
-        <v>48</v>
+      <c r="B14" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>50</v>
@@ -2606,36 +2614,36 @@
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="31">
+        <v>3</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>51</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>52</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
-        <v>3</v>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="33" t="s">
+        <v>52</v>
       </c>
       <c r="B17" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="26"/>
       <c r="D17" s="26"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="34" t="s">
         <v>55</v>
       </c>
+      <c r="C18" s="26"/>
       <c r="D18" s="26"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="33" t="s">
         <v>56</v>
       </c>
@@ -2645,8 +2653,8 @@
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="34" t="s">
@@ -2655,27 +2663,27 @@
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>61</v>
+      <c r="B21" s="28" t="s">
+        <v>9</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>62</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>9</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="33" t="s">
         <v>63</v>
       </c>
@@ -2685,64 +2693,64 @@
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" s="31">
+        <v>4</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>65</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>66</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31">
-        <v>4</v>
-      </c>
-      <c r="B25" s="32" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="95"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="88"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" s="31">
+        <v>5</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="33" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31">
-        <v>5</v>
-      </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30" s="33" t="s">
         <v>75</v>
       </c>
@@ -2752,18 +2760,18 @@
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="38" t="s">
         <v>79</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2772,89 +2780,89 @@
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="31">
+        <v>6</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>81</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>82</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="31">
-        <v>6</v>
-      </c>
-      <c r="B34" s="32" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="39" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.6" customHeight="1">
       <c r="A35" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="39" t="s">
-        <v>85</v>
+      <c r="B35" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
     </row>
-    <row r="36" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="27" t="s">
         <v>86</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>80</v>
       </c>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="31">
+        <v>7</v>
+      </c>
+      <c r="B37" s="32" t="s">
         <v>87</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>88</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="31">
-        <v>7</v>
-      </c>
-      <c r="B38" s="32" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="39" t="s">
         <v>89</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="35" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="35" t="s">
-        <v>93</v>
+      <c r="B40" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>80</v>
@@ -2862,147 +2870,147 @@
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>82</v>
+    <row r="42" spans="1:4">
+      <c r="A42" s="31">
+        <v>8</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>94</v>
       </c>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="31">
-        <v>8</v>
-      </c>
-      <c r="B43" s="32" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="34" t="s">
         <v>96</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="33" t="s">
         <v>97</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="34" t="s">
         <v>99</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>69</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="31">
+        <v>9</v>
+      </c>
+      <c r="B46" s="32" t="s">
         <v>100</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>101</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
-        <v>9</v>
+    <row r="47" spans="1:4">
+      <c r="A47" s="31" t="s">
+        <v>101</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="31" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="34" t="s">
         <v>103</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>7</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="35" t="s">
         <v>105</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="26"/>
+      <c r="C50" s="95"/>
       <c r="D50" s="26"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="87" t="s">
+      <c r="B51" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="88"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="26"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="34" t="s">
-        <v>111</v>
+      <c r="B52" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="31" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="34" t="s">
         <v>112</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>6</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" s="30" customFormat="1">
       <c r="A54" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-    </row>
-    <row r="55" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+    </row>
+    <row r="55" spans="1:4" s="30" customFormat="1">
       <c r="A55" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="34" t="s">
         <v>116</v>
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
     </row>
-    <row r="56" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" s="30" customFormat="1">
       <c r="A56" s="33" t="s">
         <v>117</v>
       </c>
@@ -3012,7 +3020,7 @@
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
     </row>
-    <row r="57" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" s="30" customFormat="1">
       <c r="A57" s="33" t="s">
         <v>119</v>
       </c>
@@ -3022,97 +3030,97 @@
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
     </row>
-    <row r="58" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
+    <row r="58" spans="1:4" s="30" customFormat="1">
+      <c r="A58" s="31">
+        <v>10</v>
+      </c>
+      <c r="B58" s="32" t="s">
         <v>121</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>122</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
     </row>
-    <row r="59" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="31">
-        <v>10</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>123</v>
+    <row r="59" spans="1:4" s="30" customFormat="1">
+      <c r="A59" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="98" t="s">
+        <v>7</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
     </row>
-    <row r="60" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="33" t="s">
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="100" t="s">
         <v>126</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="48" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="33" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="34" t="s">
-        <v>130</v>
+      <c r="B63" s="32" t="s">
+        <v>6</v>
       </c>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="31" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="34" t="s">
         <v>131</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>6</v>
       </c>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="35" t="s">
         <v>133</v>
       </c>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4">
       <c r="A66" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="34" t="s">
         <v>135</v>
       </c>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4">
       <c r="A67" s="33" t="s">
         <v>136</v>
       </c>
@@ -3122,27 +3130,27 @@
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="31">
+        <v>11</v>
+      </c>
+      <c r="B68" s="32" t="s">
         <v>138</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>139</v>
       </c>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="31">
-        <v>11</v>
-      </c>
-      <c r="B69" s="32" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="34" t="s">
         <v>140</v>
       </c>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4">
       <c r="A70" s="33" t="s">
         <v>141</v>
       </c>
@@ -3152,47 +3160,47 @@
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="33" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="31">
+        <v>12</v>
+      </c>
+      <c r="B71" s="32" t="s">
         <v>143</v>
-      </c>
-      <c r="B71" s="34" t="s">
-        <v>144</v>
       </c>
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="31">
-        <v>12</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>145</v>
+    <row r="72" spans="1:4">
+      <c r="A72" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B73" s="25" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="31">
+        <v>13</v>
+      </c>
+      <c r="B73" s="26" t="s">
         <v>145</v>
       </c>
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="31">
-        <v>13</v>
-      </c>
-      <c r="B74" s="26" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="34" t="s">
         <v>147</v>
       </c>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4">
       <c r="A75" s="33" t="s">
         <v>148</v>
       </c>
@@ -3202,27 +3210,27 @@
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" s="34" t="s">
-        <v>151</v>
+    <row r="76" spans="1:4">
+      <c r="A76" s="31">
+        <v>14</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>227</v>
       </c>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="31">
-        <v>14</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>229</v>
+    <row r="77" spans="1:4">
+      <c r="A77" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>149</v>
       </c>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4">
       <c r="A78" s="33" t="s">
         <v>152</v>
       </c>
@@ -3232,7 +3240,7 @@
       <c r="C78" s="26"/>
       <c r="D78" s="26"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4">
       <c r="A79" s="33" t="s">
         <v>154</v>
       </c>
@@ -3242,17 +3250,15 @@
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15.75" customHeight="1">
       <c r="A80" s="33" t="s">
         <v>156</v>
       </c>
       <c r="B80" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1">
       <c r="A81" s="33" t="s">
         <v>158</v>
       </c>
@@ -3260,7 +3266,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1">
       <c r="A82" s="33" t="s">
         <v>160</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1">
       <c r="A83" s="33" t="s">
         <v>162</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1">
       <c r="A84" s="33" t="s">
         <v>164</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1">
       <c r="A85" s="33" t="s">
         <v>166</v>
       </c>
@@ -3292,7 +3298,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1">
       <c r="A86" s="33" t="s">
         <v>168</v>
       </c>
@@ -3300,7 +3306,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1">
       <c r="A87" s="33" t="s">
         <v>170</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1">
       <c r="A88" s="33" t="s">
         <v>172</v>
       </c>
@@ -3316,7 +3322,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1">
       <c r="A89" s="33" t="s">
         <v>174</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1">
       <c r="A90" s="33" t="s">
         <v>176</v>
       </c>
@@ -3332,7 +3338,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1">
       <c r="A91" s="33" t="s">
         <v>178</v>
       </c>
@@ -3340,45 +3346,37 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1">
       <c r="A92" s="33" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="B92" s="34" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1">
       <c r="A93" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B93" s="34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C93" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="33" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B94" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="C94" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="B95" s="41" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
